--- a/assets/documents/products.xlsx
+++ b/assets/documents/products.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StephanCHRISTIAN\Personals\aurlac\assets\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0DF9FD-4E77-45B0-9634-B35D4F3FD139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +30,7 @@
     <t xml:space="preserve">AQUAPEINT EXTERIEUR </t>
   </si>
   <si>
-    <t xml:space="preserve">25KG</t>
+    <t>25KG</t>
   </si>
   <si>
     <t xml:space="preserve">BLANC </t>
@@ -34,70 +39,70 @@
     <t xml:space="preserve">NOISETTE </t>
   </si>
   <si>
-    <t xml:space="preserve">CACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMARIN</t>
+    <t>CACAO</t>
+  </si>
+  <si>
+    <t>TAMARIN</t>
   </si>
   <si>
     <t xml:space="preserve">CAFE </t>
   </si>
   <si>
-    <t xml:space="preserve">LAURIER</t>
+    <t>LAURIER</t>
   </si>
   <si>
     <t xml:space="preserve">SAPIN </t>
   </si>
   <si>
-    <t xml:space="preserve">LOTUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOUTARDE</t>
+    <t>LOTUS</t>
+  </si>
+  <si>
+    <t>MOUTARDE</t>
   </si>
   <si>
     <t xml:space="preserve">CARAMEL </t>
   </si>
   <si>
-    <t xml:space="preserve">POKPOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIEL</t>
+    <t>POKPOK</t>
+  </si>
+  <si>
+    <t>MIEL</t>
   </si>
   <si>
     <t xml:space="preserve">MELON </t>
   </si>
   <si>
-    <t xml:space="preserve">BAOBAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVOINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PECHE</t>
+    <t>BAOBAB</t>
+  </si>
+  <si>
+    <t>NOIR</t>
+  </si>
+  <si>
+    <t>VANILLE</t>
+  </si>
+  <si>
+    <t>AVOINE</t>
+  </si>
+  <si>
+    <t>AMANDE</t>
+  </si>
+  <si>
+    <t>PECHE</t>
   </si>
   <si>
     <t xml:space="preserve">CACAHUETTE </t>
   </si>
   <si>
-    <t xml:space="preserve">TOURNESOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUREAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POIVRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANTOLINE</t>
+    <t>TOURNESOL</t>
+  </si>
+  <si>
+    <t>SUREAU</t>
+  </si>
+  <si>
+    <t>POIVRE</t>
+  </si>
+  <si>
+    <t>SANTOLINE</t>
   </si>
   <si>
     <t xml:space="preserve">GOYAVE </t>
@@ -106,7 +111,7 @@
     <t xml:space="preserve">ANIS </t>
   </si>
   <si>
-    <t xml:space="preserve">4KG</t>
+    <t>4KG</t>
   </si>
   <si>
     <t xml:space="preserve">AQUAPEINT INTERIEUR  </t>
@@ -118,13 +123,13 @@
     <t xml:space="preserve">VERT FONCE </t>
   </si>
   <si>
-    <t xml:space="preserve">AZALE</t>
+    <t>AZALE</t>
   </si>
   <si>
     <t xml:space="preserve">IVOIRE </t>
   </si>
   <si>
-    <t xml:space="preserve">TON PIERRE</t>
+    <t>TON PIERRE</t>
   </si>
   <si>
     <t xml:space="preserve">CHAMPAGNE </t>
@@ -175,7 +180,7 @@
     <t xml:space="preserve">VERT PALE </t>
   </si>
   <si>
-    <t xml:space="preserve">VERT D EAU</t>
+    <t>VERT D EAU</t>
   </si>
   <si>
     <t xml:space="preserve">TAUPE </t>
@@ -208,7 +213,7 @@
     <t xml:space="preserve">CERISE </t>
   </si>
   <si>
-    <t xml:space="preserve">HIBISCUS</t>
+    <t>HIBISCUS</t>
   </si>
   <si>
     <t xml:space="preserve">MENTHE </t>
@@ -229,7 +234,7 @@
     <t xml:space="preserve">PIMENT </t>
   </si>
   <si>
-    <t xml:space="preserve">POMME</t>
+    <t>POMME</t>
   </si>
   <si>
     <t xml:space="preserve">NOIR </t>
@@ -247,13 +252,13 @@
     <t xml:space="preserve">GENTIANE </t>
   </si>
   <si>
-    <t xml:space="preserve">BLEUET</t>
+    <t>BLEUET</t>
   </si>
   <si>
     <t xml:space="preserve">PAVOT </t>
   </si>
   <si>
-    <t xml:space="preserve">JACARANDA</t>
+    <t>JACARANDA</t>
   </si>
   <si>
     <t xml:space="preserve">HETRE </t>
@@ -280,22 +285,22 @@
     <t xml:space="preserve">JAUNE DUNE </t>
   </si>
   <si>
-    <t xml:space="preserve">BLANC ETERNEL</t>
+    <t>BLANC ETERNEL</t>
   </si>
   <si>
     <t xml:space="preserve">BEIGE FUSION </t>
   </si>
   <si>
-    <t xml:space="preserve">ORANGE PEPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LADY PINK</t>
+    <t>ORANGE PEPS</t>
+  </si>
+  <si>
+    <t>LADY PINK</t>
   </si>
   <si>
     <t xml:space="preserve">ROUGE BAROQUE </t>
   </si>
   <si>
-    <t xml:space="preserve">TERRACOTA</t>
+    <t>TERRACOTA</t>
   </si>
   <si>
     <t xml:space="preserve">TAUPE HARMONY </t>
@@ -307,19 +312,19 @@
     <t xml:space="preserve">BLEU LAGON </t>
   </si>
   <si>
-    <t xml:space="preserve">GRIS PLENITUDE</t>
+    <t>GRIS PLENITUDE</t>
   </si>
   <si>
     <t xml:space="preserve">GRIS URBAIN </t>
   </si>
   <si>
-    <t xml:space="preserve">12KG</t>
+    <t>12KG</t>
   </si>
   <si>
     <t xml:space="preserve">AQUATOLE </t>
   </si>
   <si>
-    <t xml:space="preserve">BLANC</t>
+    <t>BLANC</t>
   </si>
   <si>
     <t xml:space="preserve">ROUGE BRUN </t>
@@ -328,7 +333,7 @@
     <t xml:space="preserve">BLEU COBALT </t>
   </si>
   <si>
-    <t xml:space="preserve">GRIS</t>
+    <t>GRIS</t>
   </si>
   <si>
     <t xml:space="preserve">AQUASOL </t>
@@ -343,19 +348,19 @@
     <t xml:space="preserve">VERT GAZON </t>
   </si>
   <si>
-    <t xml:space="preserve">ROUGE TOMETTE</t>
+    <t>ROUGE TOMETTE</t>
   </si>
   <si>
     <t xml:space="preserve">CHAMOIS </t>
   </si>
   <si>
-    <t xml:space="preserve">GRIS TOURTERELLE</t>
+    <t>GRIS TOURTERELLE</t>
   </si>
   <si>
     <t xml:space="preserve">BLEU PISCINE </t>
   </si>
   <si>
-    <t xml:space="preserve">GRIS ANTRACITE</t>
+    <t>GRIS ANTRACITE</t>
   </si>
   <si>
     <t xml:space="preserve">VERNIS SUPER GLOSS </t>
@@ -367,10 +372,7 @@
     <t xml:space="preserve">NEUTRE </t>
   </si>
   <si>
-    <t xml:space="preserve">2,5L </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEINTE</t>
+    <t>TEINTE</t>
   </si>
   <si>
     <t xml:space="preserve">VERNIS MARIN </t>
@@ -379,13 +381,13 @@
     <t xml:space="preserve">AQUAPEINT  </t>
   </si>
   <si>
-    <t xml:space="preserve">DOREE</t>
+    <t>DOREE</t>
   </si>
   <si>
     <t xml:space="preserve">LASURE </t>
   </si>
   <si>
-    <t xml:space="preserve">1L</t>
+    <t>1L</t>
   </si>
   <si>
     <t xml:space="preserve">INCOLORE </t>
@@ -412,7 +414,7 @@
     <t xml:space="preserve">PALISSANDRE </t>
   </si>
   <si>
-    <t xml:space="preserve">BLANC CERISE</t>
+    <t>BLANC CERISE</t>
   </si>
   <si>
     <t xml:space="preserve">MYKAPLUS MAT </t>
@@ -427,7 +429,7 @@
     <t xml:space="preserve">WHITE SPIRIT </t>
   </si>
   <si>
-    <t xml:space="preserve">SP14</t>
+    <t>SP14</t>
   </si>
   <si>
     <t xml:space="preserve">25KG </t>
@@ -442,7 +444,7 @@
     <t xml:space="preserve">MYKALAQUE DOREE </t>
   </si>
   <si>
-    <t xml:space="preserve">200G</t>
+    <t>200G</t>
   </si>
   <si>
     <t xml:space="preserve">ALU BRILLANT </t>
@@ -502,7 +504,7 @@
     <t xml:space="preserve">COLOFLEX </t>
   </si>
   <si>
-    <t xml:space="preserve">20KG</t>
+    <t>20KG</t>
   </si>
   <si>
     <t xml:space="preserve">20KG </t>
@@ -511,23 +513,23 @@
     <t xml:space="preserve">TOOFLEX </t>
   </si>
   <si>
-    <t xml:space="preserve">POLYURETHANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYKASOL</t>
+    <t>POLYURETHANE</t>
+  </si>
+  <si>
+    <t>MYKASOL</t>
   </si>
   <si>
     <t xml:space="preserve">18KG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5L </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,22 +538,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -568,7 +555,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -576,105 +563,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -706,7 +669,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -730,7 +693,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -790,3972 +753,3965 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D299"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E262" activeCellId="0" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="37.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.66"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>47</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>54</v>
       </c>
-      <c r="D78" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>35</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>40</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>41</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>48</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>52</v>
       </c>
-      <c r="D102" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>53</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>57</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>58</v>
       </c>
-      <c r="D107" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>59</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>60</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>61</v>
       </c>
-      <c r="D110" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>62</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>63</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>64</v>
       </c>
-      <c r="D113" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>65</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>66</v>
       </c>
-      <c r="D115" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>68</v>
       </c>
-      <c r="D117" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>69</v>
       </c>
-      <c r="D118" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>70</v>
       </c>
-      <c r="D119" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>71</v>
       </c>
-      <c r="D120" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>72</v>
       </c>
-      <c r="D121" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>73</v>
       </c>
-      <c r="D122" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>74</v>
       </c>
-      <c r="D123" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>75</v>
       </c>
-      <c r="D124" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>76</v>
       </c>
-      <c r="D125" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" t="s">
         <v>77</v>
       </c>
-      <c r="D127" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" t="s">
         <v>78</v>
       </c>
-      <c r="D128" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" t="s">
         <v>79</v>
       </c>
-      <c r="D129" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" t="s">
         <v>80</v>
       </c>
-      <c r="D130" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" t="s">
         <v>81</v>
       </c>
-      <c r="D131" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" t="s">
         <v>57</v>
       </c>
-      <c r="D133" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" t="s">
         <v>58</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" t="s">
         <v>59</v>
       </c>
-      <c r="D135" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" t="s">
         <v>60</v>
       </c>
-      <c r="D136" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" t="s">
         <v>61</v>
       </c>
-      <c r="D137" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" t="s">
         <v>62</v>
       </c>
-      <c r="D138" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" t="s">
         <v>63</v>
       </c>
-      <c r="D139" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" t="s">
         <v>64</v>
       </c>
-      <c r="D140" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" t="s">
         <v>65</v>
       </c>
-      <c r="D141" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" t="s">
         <v>67</v>
       </c>
-      <c r="D143" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" t="s">
         <v>68</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" t="s">
         <v>69</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" t="s">
         <v>70</v>
       </c>
-      <c r="D146" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" t="s">
         <v>71</v>
       </c>
-      <c r="D147" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" t="s">
         <v>72</v>
       </c>
-      <c r="D148" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" t="s">
         <v>73</v>
       </c>
-      <c r="D149" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" t="s">
         <v>74</v>
       </c>
-      <c r="D150" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" t="s">
         <v>75</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" t="s">
         <v>76</v>
       </c>
-      <c r="D152" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" t="s">
         <v>37</v>
       </c>
-      <c r="D153" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" t="s">
         <v>77</v>
       </c>
-      <c r="D154" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" t="s">
         <v>78</v>
       </c>
-      <c r="D155" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" t="s">
         <v>79</v>
       </c>
-      <c r="D156" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" t="s">
         <v>80</v>
       </c>
-      <c r="D157" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" t="s">
         <v>81</v>
       </c>
-      <c r="D158" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" t="s">
         <v>85</v>
       </c>
-      <c r="D159" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" t="s">
         <v>86</v>
       </c>
-      <c r="D160" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" t="s">
         <v>87</v>
       </c>
-      <c r="D161" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" t="s">
         <v>88</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" t="s">
         <v>89</v>
       </c>
-      <c r="D163" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" t="s">
         <v>90</v>
       </c>
-      <c r="D164" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" t="s">
         <v>91</v>
       </c>
-      <c r="D165" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" t="s">
         <v>92</v>
       </c>
-      <c r="D166" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" t="s">
         <v>93</v>
       </c>
-      <c r="D167" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" t="s">
         <v>94</v>
       </c>
-      <c r="D168" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" t="s">
         <v>95</v>
       </c>
-      <c r="D169" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" t="s">
         <v>96</v>
       </c>
-      <c r="D170" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" t="s">
         <v>85</v>
       </c>
-      <c r="D171" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" t="s">
         <v>86</v>
       </c>
-      <c r="D172" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" t="s">
         <v>87</v>
       </c>
-      <c r="D173" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" t="s">
         <v>88</v>
       </c>
-      <c r="D174" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" t="s">
         <v>89</v>
       </c>
-      <c r="D175" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" t="s">
         <v>90</v>
       </c>
-      <c r="D176" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" t="s">
         <v>91</v>
       </c>
-      <c r="D177" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" t="s">
         <v>92</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" t="s">
         <v>93</v>
       </c>
-      <c r="D179" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" t="s">
         <v>94</v>
       </c>
-      <c r="D180" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" t="s">
         <v>95</v>
       </c>
-      <c r="D181" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" t="s">
         <v>99</v>
       </c>
-      <c r="D183" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C185" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D185" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" t="s">
+        <v>100</v>
+      </c>
+      <c r="D185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" t="s">
         <v>101</v>
       </c>
-      <c r="D186" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" t="s">
         <v>102</v>
       </c>
-      <c r="D188" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" t="s">
         <v>99</v>
       </c>
-      <c r="D189" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" t="s">
         <v>31</v>
       </c>
-      <c r="D190" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D191" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" t="s">
+        <v>100</v>
+      </c>
+      <c r="D191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" t="s">
         <v>101</v>
       </c>
-      <c r="D192" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" t="s">
         <v>70</v>
       </c>
-      <c r="D193" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" t="s">
         <v>102</v>
       </c>
-      <c r="D194" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" t="s">
         <v>104</v>
       </c>
-      <c r="D195" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" t="s">
         <v>105</v>
       </c>
-      <c r="D196" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" t="s">
         <v>106</v>
       </c>
-      <c r="D197" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" t="s">
         <v>107</v>
       </c>
-      <c r="D198" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" t="s">
         <v>108</v>
       </c>
-      <c r="D199" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" t="s">
         <v>109</v>
       </c>
-      <c r="D200" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" t="s">
         <v>110</v>
       </c>
-      <c r="D201" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" t="s">
         <v>111</v>
       </c>
-      <c r="D202" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" t="s">
         <v>104</v>
       </c>
-      <c r="D203" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" t="s">
         <v>105</v>
       </c>
-      <c r="D204" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" t="s">
         <v>106</v>
       </c>
-      <c r="D205" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" t="s">
         <v>107</v>
       </c>
-      <c r="D206" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" t="s">
         <v>108</v>
       </c>
-      <c r="D207" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" t="s">
         <v>109</v>
       </c>
-      <c r="D208" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" t="s">
         <v>110</v>
       </c>
-      <c r="D209" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" t="s">
         <v>111</v>
       </c>
-      <c r="D210" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" t="s">
         <v>114</v>
       </c>
-      <c r="D211" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D211">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B212" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C212" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C212" t="s">
         <v>114</v>
       </c>
-      <c r="D212" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" t="s">
+        <v>115</v>
+      </c>
+      <c r="D213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B214" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C214" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D213" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D214" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" t="s">
         <v>114</v>
       </c>
-      <c r="D215" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B216" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C216" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C216" t="s">
         <v>114</v>
       </c>
-      <c r="D216" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C217" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D217" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B218" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C218" t="s">
         <v>115</v>
       </c>
-      <c r="C218" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D218" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D218">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C219" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D219" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B220" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+      <c r="D220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D220" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
+      <c r="B221" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" t="s">
         <v>121</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="D221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
         <v>122</v>
       </c>
-      <c r="D221" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="0" t="s">
+      <c r="D222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
         <v>123</v>
       </c>
-      <c r="D222" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="0" t="s">
+      <c r="D223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
         <v>124</v>
       </c>
-      <c r="D223" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="0" t="s">
+      <c r="D224">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
         <v>125</v>
       </c>
-      <c r="D224" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="0" t="s">
+      <c r="D225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
         <v>126</v>
       </c>
-      <c r="D225" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="0" t="s">
+      <c r="D226">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
         <v>127</v>
       </c>
-      <c r="D226" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="0" t="s">
+      <c r="D227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
         <v>128</v>
       </c>
-      <c r="D227" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="0" t="s">
+      <c r="D228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
         <v>129</v>
       </c>
-      <c r="D228" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D229" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="0" t="s">
+      <c r="D230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D230" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="0" t="s">
+      <c r="D231">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
         <v>16</v>
       </c>
-      <c r="D232" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D233" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D234" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D235" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D236" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D232">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" t="s">
+        <v>132</v>
+      </c>
+      <c r="D237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>70</v>
+      </c>
+      <c r="D238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D237" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D238" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D239" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D239">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D240">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B241" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C241" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D241" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="B242" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D242" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D243" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D244" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B245" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D245" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="D245">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D246" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D246">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B247" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D247">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D247" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D248" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D248">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B249" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D249" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
+      <c r="B250" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D250">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D250" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
+      <c r="B251" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D252">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B253" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B254" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C254" t="s">
         <v>2</v>
       </c>
-      <c r="D253" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="2" t="s">
+      <c r="D254">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D255">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B257" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C257" t="s">
         <v>2</v>
       </c>
-      <c r="D256" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D257">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" t="s">
         <v>2</v>
       </c>
-      <c r="D258" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B260" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C260" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D260" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="D261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D261" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="2" t="s">
+      <c r="D262">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D262" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
+      <c r="B263" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D263">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B264" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D264">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D263" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D264" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
+      <c r="B265" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="D265">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D265" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D266">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D267">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" t="s">
         <v>53</v>
       </c>
-      <c r="D268" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D268">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" t="s">
         <v>53</v>
       </c>
-      <c r="D269" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D269">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B270" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C270" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D270" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" t="s">
+        <v>157</v>
+      </c>
+      <c r="D270">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C271" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="D271" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" t="s">
+        <v>157</v>
+      </c>
+      <c r="D271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" t="s">
         <v>70</v>
       </c>
-      <c r="D272" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D272">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" t="s">
         <v>70</v>
       </c>
-      <c r="D273" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D273">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C274" t="s">
+        <v>53</v>
+      </c>
+      <c r="D274">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C274" s="0" t="s">
+      <c r="C275" t="s">
+        <v>102</v>
+      </c>
+      <c r="D275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C278" t="s">
         <v>53</v>
       </c>
-      <c r="D274" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B275" s="2" t="s">
+      <c r="D278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C279" t="s">
         <v>102</v>
       </c>
-      <c r="D275" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C276" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D276" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D277" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
+      <c r="D279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C278" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D278" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C279" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D279" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D280" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D280">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C281" s="0" t="s">
+      <c r="C281" t="s">
         <v>104</v>
       </c>
-      <c r="D281" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D281">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C282" s="0" t="s">
+      <c r="C282" t="s">
         <v>105</v>
       </c>
-      <c r="D282" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D282">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C283" s="0" t="s">
+      <c r="C283" t="s">
         <v>106</v>
       </c>
-      <c r="D283" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D283">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C284" s="0" t="s">
+      <c r="C284" t="s">
         <v>107</v>
       </c>
-      <c r="D284" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D284">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C285" s="0" t="s">
+      <c r="C285" t="s">
         <v>108</v>
       </c>
-      <c r="D285" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D285">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C286" s="0" t="s">
+      <c r="C286" t="s">
         <v>109</v>
       </c>
-      <c r="D286" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D286">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C287" s="0" t="s">
+      <c r="C287" t="s">
         <v>110</v>
       </c>
-      <c r="D287" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D287">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C288" s="0" t="s">
+      <c r="C288" t="s">
         <v>111</v>
       </c>
-      <c r="D288" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D288">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C289" s="0" t="s">
+      <c r="C289" t="s">
         <v>104</v>
       </c>
-      <c r="D289" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D289">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C290" s="0" t="s">
+      <c r="C290" t="s">
         <v>105</v>
       </c>
-      <c r="D290" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D290">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C291" s="0" t="s">
+      <c r="C291" t="s">
         <v>106</v>
       </c>
-      <c r="D291" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D291">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C292" s="0" t="s">
+      <c r="C292" t="s">
         <v>107</v>
       </c>
-      <c r="D292" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D292">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C293" s="0" t="s">
+      <c r="C293" t="s">
         <v>108</v>
       </c>
-      <c r="D293" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D293">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C294" s="0" t="s">
+      <c r="C294" t="s">
         <v>109</v>
       </c>
-      <c r="D294" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D294">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C295" s="0" t="s">
+      <c r="C295" t="s">
         <v>110</v>
       </c>
-      <c r="D295" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D295">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C296" s="0" t="s">
+      <c r="C296" t="s">
         <v>111</v>
       </c>
-      <c r="D296" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0"/>
-      <c r="B297" s="0"/>
-    </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0"/>
-      <c r="B298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0"/>
-      <c r="B299" s="0"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297"/>
+      <c r="B297"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298"/>
+      <c r="B298"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299"/>
+      <c r="B299"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>